--- a/示例数据.xlsx
+++ b/示例数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>ASIN</t>
   </si>
@@ -169,13 +169,40 @@
   <si>
     <t>{&amp;#10;    "days": ["2024/11/19", "2024/11/20", "2024/11/21", "2024/11/22", "2024/11/23", "2024/11/24", "2024/11/25", "2024/11/26", "2024/11/27", "2024/11/28", "2024/11/29", "2024/11/30", "2024/12/01", "2024/12/02", "2024/12/03", "2024/12/04", "2024/12/05", "2024/12/06", "2024/12/07", "2024/12/08", "2024/12/09", "2024/12/10", "2024/12/11", "2024/12/12", "2024/12/13", "2024/12/14"],&amp;#10;    "prices": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null],&amp;#10;    "sales": [null, null, null, null, null, null, 1, 3, 16, 20, 90, 123, 31, 50, 130, 30, 23, 15, 50, 340, 500, 200, 1435, 1700, 2122, 1236]&amp;#10;}</t>
   </si>
+  <si>
+    <t>B0DKFDSTHF</t>
+  </si>
+  <si>
+    <t>Cat Grooming Wrap Nail Clipping Cleaning Grooming Restraint Bag Anti Scratch Bite Bag Cat Sling Bag for Small Medium Large...</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51fG6x4cIvL._AC_US600_.jpg</t>
+  </si>
+  <si>
+    <t>Pet Supplies:Cats:Grooming:Claw Care</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"prices": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null], "sales": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null], "bsrs": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null], "days": ["2022/12/16", "2022/12/17", "2022/12/18", "2022/12/19", "2022/12/20", "2022/12/21", "2022/12/22", "2022/12/23", "2022/12/24", "2022/12/25", "2022/12/26", "2022/12/27", "2022/12/28", "2022/12/29", "2022/12/30", "2022/12/31", "2023/01/01", "2023/01/02", "2023/01/03", "2023/01/04", "2023/01/05", "2023/01/06", "2023/01/07", "2023/01/08", "2023/01/09", "2023/01/10", "2023/01/11", "2023/01/12", "2023/01/13", "2023/01/14", "2023/01/15", "2023/01/16", "2023/01/17", "2023/01/18", "2023/01/19", "2023/01/20", "2023/01/21", "2023/01/22", "2023/01/23", "2023/01/24", "2023/01/25", "2023/01/26", "2023/01/27", "2023/01/28", "2023/01/29", "2023/01/30", "2023/01/31", "2023/02/01", "2023/02/02", "2023/02/03", "2023/02/04", "2023/02/05", "2023/02/06", "2023/02/07", "2023/02/08", "2023/02/09", "2023/02/10", "2023/02/11", "2023/02/12", "2023/02/13", "2023/02/14", "2023/02/15", "2023/02/16", "2023/02/17", "2023/02/18", "2023/02/19", "2023/02/20", "2023/02/21", "2023/02/22", "2023/02/23", "2023/02/24", "2023/02/25", "2023/02/26", "2023/02/27", "2023/02/28", "2023/03/01", "2023/03/02", "2023/03/03", "2023/03/04", "2023/03/05", "2023/03/06", "2023/03/07", "2023/03/08", "2023/03/09", "2023/03/10", "2023/03/11", "2023/03/12", "2023/03/13", "2023/03/14", "2023/03/15", "2023/03/16", "2023/03/17", "2023/03/18", "2023/03/19", "2023/03/20", "2023/03/21", "2023/03/22", "2023/03/23", "2023/03/24", "2023/03/25", "2023/03/26", "2023/03/27", "2023/03/28", "2023/03/29", "2023/03/30", "2023/03/31", "2023/04/01", "2023/04/02", "2023/04/03", "2023/04/04", "2023/04/05", "2023/04/06", "2023/04/07", "2023/04/08", "2023/04/09", "2023/04/10", "2023/04/11", "2023/04/12", "2023/04/13", "2023/04/14", "2023/04/15", "2023/04/16", "2023/04/17", "2023/04/18", "2023/04/19", "2023/04/20", "2023/04/21", "2023/04/22", "2023/04/23", "2023/04/24", "2023/04/25", "2023/04/26", "2023/04/27", "2023/04/28", "2023/04/29", "2023/04/30", "2023/05/01", "2023/05/02", "2023/05/03", "2023/05/04", "2023/05/05", "2023/05/06", "2023/05/07", "2023/05/08", "2023/05/09", "2023/05/10", "2023/05/11", "2023/05/12", "2023/05/13", "2023/05/14", "2023/05/15", "2023/05/16", "2023/05/17", "2023/05/18", "2023/05/19", "2023/05/20", "2023/05/21", "2023/05/22", "2023/05/23", "2023/05/24", "2023/05/25", "2023/05/26", "2023/05/27", "2023/05/28", "2023/05/29", "2023/05/30", "2023/05/31", "2023/06/01", "2023/06/02", "2023/06/03", "2023/06/04", "2023/06/05", "2023/06/06", "2023/06/07", "2023/06/08", "2023/06/09", "2023/06/10", "2023/06/11", "2023/06/12", "2023/06/13", "2023/06/14", "2023/06/15", "2023/06/16", "2023/06/17", "2023/06/18", "2023/06/19", "2023/06/20", "2023/06/21", "2023/06/22", "2023/06/23", "2023/06/24", "2023/06/25", "2023/06/26", "2023/06/27", "2023/06/28", "2023/06/29", "2023/06/30", "2023/07/01", "2023/07/02", "2023/07/03", "2023/07/04", "2023/07/05", "2023/07/06", "2023/07/07", "2023/07/08", "2023/07/09", "2023/07/10", "2023/07/11", "2023/07/12", "2023/07/13", "2023/07/14", "2023/07/15", "2023/07/16", "2023/07/17", "2023/07/18", "2023/07/19", "2023/07/20", "2023/07/21", "2023/07/22", "2023/07/23", "2023/07/24", "2023/07/25", "2023/07/26", "2023/07/27", "2023/07/28", "2023/07/29", "2023/07/30", "2023/07/31", "2023/08/01", "2023/08/02", "2023/08/03", "2023/08/04", "2023/08/05", "2023/08/06", "2023/08/07", "2023/08/08", "2023/08/09", "2023/08/10", "2023/08/11", "2023/08/12", "2023/08/13", "2023/08/14", "2023/08/15", "2023/08/16", "2023/08/17", "2023/08/18", "2023/08/19", "2023/08/20", "2023/08/21", "2023/08/22", "2023/08/23", "2023/08/24", "2023/08/25", "2023/08/26", "2023/08/27", "2023/08/28", "2023/08/29", "2023/08/30", "2023/08/31", "2023/09/01", "2023/09/02", "2023/09/03", "2023/09/04", "2023/09/05", "2023/09/06", "2023/09/07", "2023/09/08", "2023/09/09", "2023/09/10", "2023/09/11", "2023/09/12", "2023/09/13", "2023/09/14", "2023/09/15", "2023/09/16", "2023/09/17", "2023/09/18", "2023/09/19", "2023/09/20", "2023/09/21", "2023/09/22", "2023/09/23", "2023/09/24", "2023/09/25", "2023/09/26", "2023/09/27", "2023/09/28", "2023/09/29", "2023/09/30", "2023/10/01", "2023/10/02", "2023/10/03", "2023/10/04", "2023/10/05", "2023/10/06", "2023/10/07", "2023/10/08", "2023/10/09", "2023/10/10", "2023/10/11", "2023/10/12", "2023/10/13", "2023/10/14", "2023/10/15", "2023/10/16", "2023/10/17", "2023/10/18", "2023/10/19", "2023/10/20", "2023/10/21", "2023/10/22", "2023/10/23", "2023/10/24", "2023/10/25", "2023/10/26", "2023/10/27", "2023/10/28", "2023/10/29", "2023/10/30", "2023/10/31", "2023/11/01", "2023/11/02", "2023/11/03", "2023/11/04", "2023/11/05", "2023/11/06", "2023/11/07", "2023/11/08", "2023/11/09", "2023/11/10", "2023/11/11", "2023/11/12", "2023/11/13", "2023/11/14", "2023/11/15", "2023/11/16", "2023/11/17", "2023/11/18", "2023/11/19", "2023/11/20", "2023/11/21", "2023/11/22", "2023/11/23", "2023/11/24", "2023/11/25", "2023/11/26", "2023/11/27", "2023/11/28", "2023/11/29", "2023/11/30", "2023/12/01", "2023/12/02", "2023/12/03", "2023/12/04", "2023/12/05", "2023/12/06", "2023/12/07", "2023/12/08", "2023/12/09", "2023/12/10", "2023/12/11", "2023/12/12", "2023/12/13", "2023/12/14", "2023/12/15", "2023/12/16", "2023/12/17", "2023/12/18", "2023/12/19", "2023/12/20", "2023/12/21", "2023/12/22", "2023/12/23", "2023/12/24", "2023/12/25", "2023/12/26", "2023/12/27", "2023/12/28", "2023/12/29", "2023/12/30", "2023/12/31", "2024/01/01", "2024/01/02", "2024/01/03", "2024/01/04", "2024/01/05", "2024/01/06", "2024/01/07", "2024/01/08", "2024/01/09", "2024/01/10", "2024/01/11", "2024/01/12", "2024/01/13", "2024/01/14", "2024/01/15", "2024/01/16", "2024/01/17", "2024/01/18", "2024/01/19", "2024/01/20", "2024/01/21", "2024/01/22", "2024/01/23", "2024/01/24", "2024/01/25", "2024/01/26", "2024/01/27", "2024/01/28", "2024/01/29", "2024/01/30", "2024/01/31", "2024/02/01", "2024/02/02", "2024/02/03", "2024/02/04", "2024/02/05", "2024/02/06", "2024/02/07", "2024/02/08", "2024/02/09", "2024/02/10", "2024/02/11", "2024/02/12", "2024/02/13", "2024/02/14", "2024/02/15", "2024/02/16", "2024/02/17", "2024/02/18", "2024/02/19", "2024/02/20", "2024/02/21", "2024/02/22", "2024/02/23", "2024/02/24", "2024/02/25", "2024/02/26", "2024/02/27", "2024/02/28", "2024/02/29", "2024/03/01", "2024/03/02", "2024/03/03", "2024/03/04", "2024/03/05", "2024/03/06", "2024/03/07", "2024/03/08", "2024/03/09", "2024/03/10", "2024/03/11", "2024/03/12", "2024/03/13", "2024/03/14", "2024/03/15", "2024/03/16", "2024/03/17", "2024/03/18", "2024/03/19", "2024/03/20", "2024/03/21", "2024/03/22", "2024/03/23", "2024/03/24", "2024/03/25", "2024/03/26", "2024/03/27", "2024/03/28", "2024/03/29", "2024/03/30", "2024/03/31", "2024/04/01", "2024/04/02", "2024/04/03", "2024/04/04", "2024/04/05", "2024/04/06", "2024/04/07", "2024/04/08", "2024/04/09", "2024/04/10", "2024/04/11", "2024/04/12", "2024/04/13", "2024/04/14", "2024/04/15", "2024/04/16", "2024/04/17", "2024/04/18", "2024/04/19", "2024/04/20", "2024/04/21", "2024/04/22", "2024/04/23", "2024/04/24", "2024/04/25", "2024/04/26", "2024/04/27", "2024/04/28", "2024/04/29", "2024/04/30", "2024/05/01", "2024/05/02", "2024/05/03", "2024/05/04", "2024/05/05", "2024/05/06", "2024/05/07", "2024/05/08", "2024/05/09", "2024/05/10", "2024/05/11", "2024/05/12", "2024/05/13", "2024/05/14", "2024/05/15", "2024/05/16", "2024/05/17", "2024/05/18", "2024/05/19", "2024/05/20", "2024/05/21", "2024/05/22", "2024/05/23", "2024/05/24", "2024/05/25", "2024/05/26", "2024/05/27", "2024/05/28", "2024/05/29", "2024/05/30", "2024/05/31", "2024/06/01", "2024/06/02", "2024/06/03", "2024/06/04", "2024/06/05", "2024/06/06", "2024/06/07", "2024/06/08", "2024/06/09", "2024/06/10", "2024/06/11", "2024/06/12", "2024/06/13", "2024/06/14", "2024/06/15", "2024/06/16", "2024/06/17", "2024/06/18", "2024/06/19", "2024/06/20", "2024/06/21", "2024/06/22", "2024/06/23", "2024/06/24", "2024/06/25", "2024/06/26", "2024/06/27", "2024/06/28", "2024/06/29", "2024/06/30", "2024/07/01", "2024/07/02", "2024/07/03", "2024/07/04", "2024/07/05", "2024/07/06", "2024/07/07", "2024/07/08", "2024/07/09", "2024/07/10", "2024/07/11", "2024/07/12", "2024/07/13", "2024/07/14", "2024/07/15", "2024/07/16", "2024/07/17", "2024/07/18", "2024/07/19", "2024/07/20", "2024/07/21", "2024/07/22", "2024/07/23", "2024/07/24", "2024/07/25", "2024/07/26", "2024/07/27", "2024/07/28", "2024/07/29", "2024/07/30", "2024/07/31", "2024/08/01", "2024/08/02", "2024/08/03", "2024/08/04", "2024/08/05", "2024/08/06", "2024/08/07", "2024/08/08", "2024/08/09", "2024/08/10", "2024/08/11", "2024/08/12", "2024/08/13", "2024/08/14", "2024/08/15", "2024/08/16", "2024/08/17", "2024/08/18", "2024/08/19", "2024/08/20", "2024/08/21", "2024/08/22", "2024/08/23", "2024/08/24", "2024/08/25", "2024/08/26", "2024/08/27", "2024/08/28", "2024/08/29", "2024/08/30", "2024/08/31", "2024/09/01", "2024/09/02", "2024/09/03", "2024/09/04", "2024/09/05", "2024/09/06", "2024/09/07", "2024/09/08", "2024/09/09", "2024/09/10", "2024/09/11", "2024/09/12", "2024/09/13", "2024/09/14", "2024/09/15", "2024/09/16", "2024/09/17", "2024/09/18", "2024/09/19", "2024/09/20", "2024/09/21", "2024/09/22", "2024/09/23", "2024/09/24", "2024/09/25", "2024/09/26", "2024/09/27", "2024/09/28", "2024/09/29", "2024/09/30", "2024/10/01", "2024/10/02", "2024/10/03", "2024/10/04", "2024/10/05", "2024/10/06", "2024/10/07", "2024/10/08", "2024/10/09", "2024/10/10", "2024/10/11", "2024/10/12", "2024/10/13", "2024/10/14", "2024/10/15", "2024/10/16", "2024/10/17", "2024/10/18", "2024/10/19", "2024/10/20", "2024/10/21", "2024/10/22", "2024/10/23", "2024/10/24", "2024/10/25", "2024/10/26", "2024/10/27", "2024/10/28", "2024/10/29", "2024/10/30", "2024/10/31", "2024/11/01", "2024/11/02", "2024/11/03", "2024/11/04", "2024/11/05", "2024/11/06", "2024/11/07", "2024/11/08", "2024/11/09", "2024/11/10", "2024/11/11", "2024/11/12", "2024/11/13", "2024/11/14", "2024/11/15", "2024/11/16", "2024/11/17", "2024/11/18", "2024/11/19", "2024/11/20", "2024/11/21", "2024/11/22", "2024/11/23", "2024/11/24", "2024/11/25", "2024/11/26", "2024/11/27", "2024/11/28", "2024/11/29", "2024/11/30", "2024/12/01", "2024/12/02", "2024/12/03", "2024/12/04", "2024/12/05", "2024/12/06", "2024/12/07", "2024/12/08", "2024/12/09", "2024/12/10", "2024/12/11", "2024/12/12", "2024/12/13", "2024/12/14"]}</t>
+  </si>
+  <si>
+    <t>B0DP2NBHQY</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/31e-Il2oUcL._AC_US600_.jpg</t>
+  </si>
+  <si>
+    <t>{"prices": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, 12.99, null, null, null, null, null, null, 12.99, 12.99, 12.99, null, null], "sales": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 3, 3, 4, 4, 5, 5, 2, 1, 1], "bsrs": [2715347, 2711657, 2707967, 2704277, 2700587, 2696897, 2693207, 2689517, 2685827, 2682137, 2678447, 2674757, 2671067, 2667377, 2663687, 2659997, 2656307, 2652617, 2648927, 2645237, 2641547, 2637857, 2634167, 2630477, 2626787, 2623097, 2619407, 2615717, 2612027, 2608337, 2604647, 2600957, 2597267, 2593577, 2589887, 2586197, 2582507, 2578817, 2575127, 2571437, 2567747, 2564057, 2560367, 2556677, 2552987, 2549297, 2545607, 2541917, 2538227, 2534537, 2530847, 2527157, 2523467, 2519777, 2516087, 2512397, 2508707, 2505017, 2501327, 2497637, 2493947, 2490257, 2486567, 2482877, 2479187, 2475497, 2471807, 2468117, 2464427, 2460737, 2457047, 2453357, 2449667, 2445977, 2442287, 2438597, 2434907, 2431217, 2427527, 2423837, 2420147, 2416457, 2412767, 2409077, 2405387, 2401697, 2398007, 2394317, 2390627, 2386937, 2383247, 2379557, 2375867, 2372177, 2368487, 2364797, 2361107, 2357417, 2353727, 2350037, 2346347, 2342657, 2338967, 2335277, 2331587, 2327897, 2324207, 2320517, 2316827, 2313137, 2309447, 2305757, 2302067, 2298377, 2294687, 2290997, 2287307, 2283617, 2279927, 2276237, 2272547, 2268857, 2265167, 2261477, 2257787, 2254097, 2250407, 2246717, 2243027, 2239337, 2235647, 2231957, 2228267, 2224577, 2220887, 2217197, 2213507, 2209817, 2206127, 2202437, 2198747, 2195057, 2191367, 2187677, 2183987, 2180297, 2176607, 2172917, 2169227, 2165537, 2161847, 2158157, 2154467, 2150777, 2147087, 2143397, 2139707, 2136017, 2132327, 2128637, 2124947, 2121257, 2117567, 2113877, 2110187, 2106497, 2102807, 2099117, 2095427, 2091737, 2088047, 2084357, 2080667, 2076977, 2073287, 2069597, 2065907, 2062217, 2058527, 2054837, 2051147, 2047457, 2043767, 2040077, 2036387, 2032697, 2029007, 2025317, 2021627, 2017937, 2014247, 2010557, 2006867, 2003177, 1999487, 1995797, 1992107, 1988417, 1984727, 1981037, 1977347, 1973657, 1969967, 1966277, 1962587, 1958897, 1955207, 1951517, 1947827, 1944137, 1940447, 1936757, 1933067, 1929377, 1925687, 1921997, 1918307, 1914617, 1910927, 1907237, 1903547, 1899857, 1896167, 1892477, 1888787, 1885097, 1881407, 1877717, 1874027, 1870337, 1866647, 1862957, 1859267, 1855577, 1851887, 1848197, 1844507, 1840817, 1837127, 1833437, 1829747, 1826057, 1822367, 1818677, 1814987, 1811297, 1807607, 1803917, 1800227, 1796537, 1792847, 1789157, 1785467, 1781777, 1778087, 1774397, 1770707, 1767017, 1763327, 1759637, 1755947, 1752257, 1748567, 1744877, 1741187, 1737497, 1733807, 1730117, 1726427, 1722737, 1719047, 1715357, 1711667, 1707977, 1704287, 1700597, 1696907, 1693217, 1689527, 1685837, 1682147, 1678457, 1674767, 1671077, 1667387, 1663697, 1660007, 1656317, 1652627, 1648937, 1645247, 1641557, 1637867, 1634177, 1630487, 1626797, 1623107, 1619417, 1615727, 1612037, 1608347, 1604657, 1600967, 1597277, 1593587, 1589897, 1586207, 1582517, 1578827, 1575137, 1571447, 1567757, 1564067, 1560377, 1556687, 1552997, 1549307, 1545617, 1541927, 1538237, 1534547, 1530857, 1527167, 1523477, 1519787, 1516097, 1512407, 1508717, 1505027, 1501337, 1497647, 1493957, 1490267, 1486577, 1482887, 1479197, 1475507, 1471817, 1468127, 1464437, 1460747, 1457057, 1453367, 1449677, 1445987, 1442297, 1438607, 1434917, 1431227, 1427537, 1423847, 1420157, 1416467, 1412777, 1409087, 1405397, 1401707, 1398017, 1394327, 1390637, 1386947, 1383257, 1379567, 1375877, 1372187, 1368497, 1364807, 1361117, 1357427, 1353737, 1350047, 1346357, 1342667, 1338977, 1335287, 1331597, 1327907, 1324217, 1320527, 1316837, 1313147, 1309457, 1305767, 1302077, 1298387, 1294697, 1291007, 1287317, 1283627, 1279937, 1276247, 1272557, 1268867, 1265177, 1261487, 1257797, 1254107, 1250417, 1246727, 1243037, 1239347, 1235657, 1231967, 1228277, 1224587, 1220897, 1217207, 1213517, 1209827, 1206137, 1202447, 1198757, 1195067, 1191377, 1187687, 1183997, 1180307, 1176617, 1172927, 1169237, 1165547, 1161857, 1158167, 1154477, 1150787, 1147097, 1143407, 1139717, 1136027, 1132337, 1128647, 1124957, 1121267, 1117577, 1113887, 1110197, 1106507, 1102817, 1099127, 1095437, 1091747, 1088057, 1084367, 1080677, 1076987, 1073297, 1069607, 1065917, 1062227, 1058537, 1054847, 1051157, 1047467, 1043777, 1040087, 1036397, 1032707, 1029017, 1025327, 1021637, 1017947, 1014257, 1010567, 1006877, 1003187, 999497, 995807, 992117, 988427, 984737, 981047, 977357, 973667, 969977, 966287, 962597, 958907, 955217, 951527, 947837, 944147, 940457, 936767, 933077, 929387, 925697, 922007, 918317, 914627, 910937, 907247, 903557, 899867, 896177, 892487, 888797, 885107, 881417, 877727, 874037, 870347, 866657, 862967, 859277, 855587, 851897, 848207, 844517, 840827, 837137, 833447, 829757, 826067, 822377, 818687, 814997, 811307, 807617, 803927, 800237, 796547, 792857, 789167, 785477, 781787, 778097, 774407, 770717, 767027, 763337, 759647, 755957, 752267, 748577, 744887, 741197, 737507, 733817, 730127, 726437, 722747, 719057, 715367, 711677, 707987, 704297, 700607, 696917, 693227, 689537, 685847, 682157, 678467, 674777, 671087, 667397, 663707, 660017, 656327, 652637, 648947, 645257, 641567, 637877, 634187, 630497, 626807, 623117, 619427, 615737, 612047, 608357, 604667, 600977, 597287, 593597, 589907, 586217, 582527, 578837, 575147, 571457, 567767, 564077, 560387, 556697, 553007, 549317, 545627, 541937, 538247, 534557, 530867, 527177, 523487, 519797, 516107, 512417, 508727, 505037, 501347, 497657, 493967, 490277, 486587, 482897, 479207, 475517, 471827, 468137, 464447, 460757, 457067, 453377, 449687, 445997, 442307, 438617, 434927, 431237, 427547, 423857, 420167, 416477, 412787, 409097, 405407, 401717, 398027, 394337, 390647, 386957, 383267, 379577, 375887, 372197, 368507, 364817, 361127, 357437, 353747, 350057, 346367, 342677, 338987, 335297, 331607, 327917, 324227, 320537, 316847, 313157, 309467, 305777, 302087, 298397, 294707, 291017, 287327, 283637, 279947, 276257, 272567, 268877, 265187, 261497, 257807, 254117, 250427, 246737, 243047, 239357, 235667, 231977, 228287, 224597, 220907, 217217, 213527, 209837, 206147, 202457, 198767, 195077, 191387, 187697, 184007, 180317, 176627, 172937, 169247, 165557, 161867, 158177, 154487, 150797, 147107, 143417, 139727, 136037, 132347, 128657, 124967, 121277, 117587, 113897, 110207, 106517, 102827, 99137, 95447, 91757, 88067, 84377, 80687, 76997, 73307, 69617, 65927, 62237, 58547, 54857, 51167, 47477, 43787, 40097, 41813, 59358, 76903, 94448], "days": ["2022/12/16", "2022/12/17", "2022/12/18", "2022/12/19", "2022/12/20", "2022/12/21", "2022/12/22", "2022/12/23", "2022/12/24", "2022/12/25", "2022/12/26", "2022/12/27", "2022/12/28", "2022/12/29", "2022/12/30", "2022/12/31", "2023/01/01", "2023/01/02", "2023/01/03", "2023/01/04", "2023/01/05", "2023/01/06", "2023/01/07", "2023/01/08", "2023/01/09", "2023/01/10", "2023/01/11", "2023/01/12", "2023/01/13", "2023/01/14", "2023/01/15", "2023/01/16", "2023/01/17", "2023/01/18", "2023/01/19", "2023/01/20", "2023/01/21", "2023/01/22", "2023/01/23", "2023/01/24", "2023/01/25", "2023/01/26", "2023/01/27", "2023/01/28", "2023/01/29", "2023/01/30", "2023/01/31", "2023/02/01", "2023/02/02", "2023/02/03", "2023/02/04", "2023/02/05", "2023/02/06", "2023/02/07", "2023/02/08", "2023/02/09", "2023/02/10", "2023/02/11", "2023/02/12", "2023/02/13", "2023/02/14", "2023/02/15", "2023/02/16", "2023/02/17", "2023/02/18", "2023/02/19", "2023/02/20", "2023/02/21", "2023/02/22", "2023/02/23", "2023/02/24", "2023/02/25", "2023/02/26", "2023/02/27", "2023/02/28", "2023/03/01", "2023/03/02", "2023/03/03", "2023/03/04", "2023/03/05", "2023/03/06", "2023/03/07", "2023/03/08", "2023/03/09", "2023/03/10", "2023/03/11", "2023/03/12", "2023/03/13", "2023/03/14", "2023/03/15", "2023/03/16", "2023/03/17", "2023/03/18", "2023/03/19", "2023/03/20", "2023/03/21", "2023/03/22", "2023/03/23", "2023/03/24", "2023/03/25", "2023/03/26", "2023/03/27", "2023/03/28", "2023/03/29", "2023/03/30", "2023/03/31", "2023/04/01", "2023/04/02", "2023/04/03", "2023/04/04", "2023/04/05", "2023/04/06", "2023/04/07", "2023/04/08", "2023/04/09", "2023/04/10", "2023/04/11", "2023/04/12", "2023/04/13", "2023/04/14", "2023/04/15", "2023/04/16", "2023/04/17", "2023/04/18", "2023/04/19", "2023/04/20", "2023/04/21", "2023/04/22", "2023/04/23", "2023/04/24", "2023/04/25", "2023/04/26", "2023/04/27", "2023/04/28", "2023/04/29", "2023/04/30", "2023/05/01", "2023/05/02", "2023/05/03", "2023/05/04", "2023/05/05", "2023/05/06", "2023/05/07", "2023/05/08", "2023/05/09", "2023/05/10", "2023/05/11", "2023/05/12", "2023/05/13", "2023/05/14", "2023/05/15", "2023/05/16", "2023/05/17", "2023/05/18", "2023/05/19", "2023/05/20", "2023/05/21", "2023/05/22", "2023/05/23", "2023/05/24", "2023/05/25", "2023/05/26", "2023/05/27", "2023/05/28", "2023/05/29", "2023/05/30", "2023/05/31", "2023/06/01", "2023/06/02", "2023/06/03", "2023/06/04", "2023/06/05", "2023/06/06", "2023/06/07", "2023/06/08", "2023/06/09", "2023/06/10", "2023/06/11", "2023/06/12", "2023/06/13", "2023/06/14", "2023/06/15", "2023/06/16", "2023/06/17", "2023/06/18", "2023/06/19", "2023/06/20", "2023/06/21", "2023/06/22", "2023/06/23", "2023/06/24", "2023/06/25", "2023/06/26", "2023/06/27", "2023/06/28", "2023/06/29", "2023/06/30", "2023/07/01", "2023/07/02", "2023/07/03", "2023/07/04", "2023/07/05", "2023/07/06", "2023/07/07", "2023/07/08", "2023/07/09", "2023/07/10", "2023/07/11", "2023/07/12", "2023/07/13", "2023/07/14", "2023/07/15", "2023/07/16", "2023/07/17", "2023/07/18", "2023/07/19", "2023/07/20", "2023/07/21", "2023/07/22", "2023/07/23", "2023/07/24", "2023/07/25", "2023/07/26", "2023/07/27", "2023/07/28", "2023/07/29", "2023/07/30", "2023/07/31", "2023/08/01", "2023/08/02", "2023/08/03", "2023/08/04", "2023/08/05", "2023/08/06", "2023/08/07", "2023/08/08", "2023/08/09", "2023/08/10", "2023/08/11", "2023/08/12", "2023/08/13", "2023/08/14", "2023/08/15", "2023/08/16", "2023/08/17", "2023/08/18", "2023/08/19", "2023/08/20", "2023/08/21", "2023/08/22", "2023/08/23", "2023/08/24", "2023/08/25", "2023/08/26", "2023/08/27", "2023/08/28", "2023/08/29", "2023/08/30", "2023/08/31", "2023/09/01", "2023/09/02", "2023/09/03", "2023/09/04", "2023/09/05", "2023/09/06", "2023/09/07", "2023/09/08", "2023/09/09", "2023/09/10", "2023/09/11", "2023/09/12", "2023/09/13", "2023/09/14", "2023/09/15", "2023/09/16", "2023/09/17", "2023/09/18", "2023/09/19", "2023/09/20", "2023/09/21", "2023/09/22", "2023/09/23", "2023/09/24", "2023/09/25", "2023/09/26", "2023/09/27", "2023/09/28", "2023/09/29", "2023/09/30", "2023/10/01", "2023/10/02", "2023/10/03", "2023/10/04", "2023/10/05", "2023/10/06", "2023/10/07", "2023/10/08", "2023/10/09", "2023/10/10", "2023/10/11", "2023/10/12", "2023/10/13", "2023/10/14", "2023/10/15", "2023/10/16", "2023/10/17", "2023/10/18", "2023/10/19", "2023/10/20", "2023/10/21", "2023/10/22", "2023/10/23", "2023/10/24", "2023/10/25", "2023/10/26", "2023/10/27", "2023/10/28", "2023/10/29", "2023/10/30", "2023/10/31", "2023/11/01", "2023/11/02", "2023/11/03", "2023/11/04", "2023/11/05", "2023/11/06", "2023/11/07", "2023/11/08", "2023/11/09", "2023/11/10", "2023/11/11", "2023/11/12", "2023/11/13", "2023/11/14", "2023/11/15", "2023/11/16", "2023/11/17", "2023/11/18", "2023/11/19", "2023/11/20", "2023/11/21", "2023/11/22", "2023/11/23", "2023/11/24", "2023/11/25", "2023/11/26", "2023/11/27", "2023/11/28", "2023/11/29", "2023/11/30", "2023/12/01", "2023/12/02", "2023/12/03", "2023/12/04", "2023/12/05", "2023/12/06", "2023/12/07", "2023/12/08", "2023/12/09", "2023/12/10", "2023/12/11", "2023/12/12", "2023/12/13", "2023/12/14", "2023/12/15", "2023/12/16", "2023/12/17", "2023/12/18", "2023/12/19", "2023/12/20", "2023/12/21", "2023/12/22", "2023/12/23", "2023/12/24", "2023/12/25", "2023/12/26", "2023/12/27", "2023/12/28", "2023/12/29", "2023/12/30", "2023/12/31", "2024/01/01", "2024/01/02", "2024/01/03", "2024/01/04", "2024/01/05", "2024/01/06", "2024/01/07", "2024/01/08", "2024/01/09", "2024/01/10", "2024/01/11", "2024/01/12", "2024/01/13", "2024/01/14", "2024/01/15", "2024/01/16", "2024/01/17", "2024/01/18", "2024/01/19", "2024/01/20", "2024/01/21", "2024/01/22", "2024/01/23", "2024/01/24", "2024/01/25", "2024/01/26", "2024/01/27", "2024/01/28", "2024/01/29", "2024/01/30", "2024/01/31", "2024/02/01", "2024/02/02", "2024/02/03", "2024/02/04", "2024/02/05", "2024/02/06", "2024/02/07", "2024/02/08", "2024/02/09", "2024/02/10", "2024/02/11", "2024/02/12", "2024/02/13", "2024/02/14", "2024/02/15", "2024/02/16", "2024/02/17", "2024/02/18", "2024/02/19", "2024/02/20", "2024/02/21", "2024/02/22", "2024/02/23", "2024/02/24", "2024/02/25", "2024/02/26", "2024/02/27", "2024/02/28", "2024/02/29", "2024/03/01", "2024/03/02", "2024/03/03", "2024/03/04", "2024/03/05", "2024/03/06", "2024/03/07", "2024/03/08", "2024/03/09", "2024/03/10", "2024/03/11", "2024/03/12", "2024/03/13", "2024/03/14", "2024/03/15", "2024/03/16", "2024/03/17", "2024/03/18", "2024/03/19", "2024/03/20", "2024/03/21", "2024/03/22", "2024/03/23", "2024/03/24", "2024/03/25", "2024/03/26", "2024/03/27", "2024/03/28", "2024/03/29", "2024/03/30", "2024/03/31", "2024/04/01", "2024/04/02", "2024/04/03", "2024/04/04", "2024/04/05", "2024/04/06", "2024/04/07", "2024/04/08", "2024/04/09", "2024/04/10", "2024/04/11", "2024/04/12", "2024/04/13", "2024/04/14", "2024/04/15", "2024/04/16", "2024/04/17", "2024/04/18", "2024/04/19", "2024/04/20", "2024/04/21", "2024/04/22", "2024/04/23", "2024/04/24", "2024/04/25", "2024/04/26", "2024/04/27", "2024/04/28", "2024/04/29", "2024/04/30", "2024/05/01", "2024/05/02", "2024/05/03", "2024/05/04", "2024/05/05", "2024/05/06", "2024/05/07", "2024/05/08", "2024/05/09", "2024/05/10", "2024/05/11", "2024/05/12", "2024/05/13", "2024/05/14", "2024/05/15", "2024/05/16", "2024/05/17", "2024/05/18", "2024/05/19", "2024/05/20", "2024/05/21", "2024/05/22", "2024/05/23", "2024/05/24", "2024/05/25", "2024/05/26", "2024/05/27", "2024/05/28", "2024/05/29", "2024/05/30", "2024/05/31", "2024/06/01", "2024/06/02", "2024/06/03", "2024/06/04", "2024/06/05", "2024/06/06", "2024/06/07", "2024/06/08", "2024/06/09", "2024/06/10", "2024/06/11", "2024/06/12", "2024/06/13", "2024/06/14", "2024/06/15", "2024/06/16", "2024/06/17", "2024/06/18", "2024/06/19", "2024/06/20", "2024/06/21", "2024/06/22", "2024/06/23", "2024/06/24", "2024/06/25", "2024/06/26", "2024/06/27", "2024/06/28", "2024/06/29", "2024/06/30", "2024/07/01", "2024/07/02", "2024/07/03", "2024/07/04", "2024/07/05", "2024/07/06", "2024/07/07", "2024/07/08", "2024/07/09", "2024/07/10", "2024/07/11", "2024/07/12", "2024/07/13", "2024/07/14", "2024/07/15", "2024/07/16", "2024/07/17", "2024/07/18", "2024/07/19", "2024/07/20", "2024/07/21", "2024/07/22", "2024/07/23", "2024/07/24", "2024/07/25", "2024/07/26", "2024/07/27", "2024/07/28", "2024/07/29", "2024/07/30", "2024/07/31", "2024/08/01", "2024/08/02", "2024/08/03", "2024/08/04", "2024/08/05", "2024/08/06", "2024/08/07", "2024/08/08", "2024/08/09", "2024/08/10", "2024/08/11", "2024/08/12", "2024/08/13", "2024/08/14", "2024/08/15", "2024/08/16", "2024/08/17", "2024/08/18", "2024/08/19", "2024/08/20", "2024/08/21", "2024/08/22", "2024/08/23", "2024/08/24", "2024/08/25", "2024/08/26", "2024/08/27", "2024/08/28", "2024/08/29", "2024/08/30", "2024/08/31", "2024/09/01", "2024/09/02", "2024/09/03", "2024/09/04", "2024/09/05", "2024/09/06", "2024/09/07", "2024/09/08", "2024/09/09", "2024/09/10", "2024/09/11", "2024/09/12", "2024/09/13", "2024/09/14", "2024/09/15", "2024/09/16", "2024/09/17", "2024/09/18", "2024/09/19", "2024/09/20", "2024/09/21", "2024/09/22", "2024/09/23", "2024/09/24", "2024/09/25", "2024/09/26", "2024/09/27", "2024/09/28", "2024/09/29", "2024/09/30", "2024/10/01", "2024/10/02", "2024/10/03", "2024/10/04", "2024/10/05", "2024/10/06", "2024/10/07", "2024/10/08", "2024/10/09", "2024/10/10", "2024/10/11", "2024/10/12", "2024/10/13", "2024/10/14", "2024/10/15", "2024/10/16", "2024/10/17", "2024/10/18", "2024/10/19", "2024/10/20", "2024/10/21", "2024/10/22", "2024/10/23", "2024/10/24", "2024/10/25", "2024/10/26", "2024/10/27", "2024/10/28", "2024/10/29", "2024/10/30", "2024/10/31", "2024/11/01", "2024/11/02", "2024/11/03", "2024/11/04", "2024/11/05", "2024/11/06", "2024/11/07", "2024/11/08", "2024/11/09", "2024/11/10", "2024/11/11", "2024/11/12", "2024/11/13", "2024/11/14", "2024/11/15", "2024/11/16", "2024/11/17", "2024/11/18", "2024/11/19", "2024/11/20", "2024/11/21", "2024/11/22", "2024/11/23", "2024/11/24", "2024/11/25", "2024/11/26", "2024/11/27", "2024/11/28", "2024/11/29", "2024/11/30", "2024/12/01", "2024/12/02", "2024/12/03", "2024/12/04", "2024/12/05", "2024/12/06", "2024/12/07", "2024/12/08", "2024/12/09", "2024/12/10", "2024/12/11", "2024/12/12", "2024/12/13", "2024/12/14"]}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +239,18 @@
       <sz val="11"/>
       <color rgb="FF0c006b"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -262,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,9 +309,6 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -291,8 +327,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -302,9 +341,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,13 +654,13 @@
     <col min="2" max="2" style="11" width="37.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="22.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="13" width="12.43357142857143" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="14" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="21.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="13" width="21.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="26">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,138 +679,164 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="688.5">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>45616</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="675.75">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>45615</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="714.75">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>45621</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45641</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45621</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
+      <c r="G6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/示例数据.xlsx
+++ b/示例数据.xlsx
@@ -202,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,12 +244,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -301,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,9 +322,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -650,14 +641,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="12.43357142857143" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="13" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="12" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="21.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -753,47 +744,47 @@
       <c r="H4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="5">
         <v>45641</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5">
         <v>45621</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="8"/>

--- a/示例数据.xlsx
+++ b/示例数据.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="28260" windowHeight="12440"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Claw Care"/>
+    <sheet name="Claw Care" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -41,126 +54,105 @@
   </si>
   <si>
     <r>
-      <t/>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B0DNSJNSRX</t>
     </r>
+  </si>
+  <si>
+    <t>4 Pcs Silicone Cat Feet Claw Covers, Anti-Scratch Cat Nail Shoes Kitten Feet Paw Boots Cat Protector Caps to Prevent Scratching Pet Supplies for Bathing Shaving Grooming</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>B0DNSJNSRX</t>
+      <t>https://m.media-amazon.com/images/I/41NFgAjwehL._AC_US600_.jpg</t>
     </r>
   </si>
   <si>
-    <t>4 Pcs Silicone Cat Feet Claw Covers, Anti-Scratch Cat Nail Shoes Kitten Feet Paw Boots Cat Protector Caps to Prevent Scratching Pet Supplies for Bathing Shaving Grooming</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://m.media-amazon.com/images/I/41NFgAjwehL._AC_US600_.jpg</t>
+      <t>Pet Supplies:Cats:Grooming:Claw Care</t>
     </r>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
+    <t>{&amp;#10;    "days": ["2024/11/19", "2024/11/20", "2024/11/21", "2024/11/22", "2024/11/23", "2024/11/24", "2024/11/25", "2024/11/26", "2024/11/27", "2024/11/28", "2024/11/29", "2024/11/30", "2024/12/01", "2024/12/02", "2024/12/03", "2024/12/04", "2024/12/05", "2024/12/06", "2024/12/07", "2024/12/08", "2024/12/09", "2024/12/10", "2024/12/11", "2024/12/12", "2024/12/13", "2024/12/14"],&amp;#10;    "prices": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null],&amp;#10;    "sales": [null, 0, 1, 3, 1, 2, 4, 5, 6, 2, 9, 1, 3, 50, 13, 30, 23, 15, 50, 340, 1236, 770, 1435, 1700, 2122, 1236]&amp;#10;}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Pet Supplies:Cats:Grooming:Claw Care</t>
+      <t>B0DNQWSLHV</t>
     </r>
   </si>
   <si>
-    <t>{&amp;#10;    "days": ["2024/11/19", "2024/11/20", "2024/11/21", "2024/11/22", "2024/11/23", "2024/11/24", "2024/11/25", "2024/11/26", "2024/11/27", "2024/11/28", "2024/11/29", "2024/11/30", "2024/12/01", "2024/12/02", "2024/12/03", "2024/12/04", "2024/12/05", "2024/12/06", "2024/12/07", "2024/12/08", "2024/12/09", "2024/12/10", "2024/12/11", "2024/12/12", "2024/12/13", "2024/12/14"],&amp;#10;    "prices": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null],&amp;#10;    "sales": [null, 0, 1, 3, 1, 2, 4, 5, 6, 2, 9, 1, 3, 50, 13, 30, 23, 15, 50, 340, 1236, 770, 1435, 1700, 2122, 1236]&amp;#10;}</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
+    <t>New Cat Wrap for Grooming, Magic Mat Cat Wrap, Premium Cat Grooming Wrap Cat Restraint for Nail Clipping, Self-Adhesive To...</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>B0DNQWSLHV</t>
+      <t>https://images-na.ssl-images-amazon.com/images/I/61342fZwBEL._AC_US600_.jpg</t>
     </r>
   </si>
   <si>
-    <t>New Cat Wrap for Grooming, Magic Mat Cat Wrap, Premium Cat Grooming Wrap Cat Restraint for Nail Clipping, Self-Adhesive To...</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
+    <t>{&amp;#10;    "days": ["2024/11/19", "2024/11/20", "2024/11/21", "2024/11/22", "2024/11/23", "2024/11/24", "2024/11/25", "2024/11/26", "2024/11/27", "2024/11/28", "2024/11/29", "2024/11/30", "2024/12/01", "2024/12/02", "2024/12/03", "2024/12/04", "2024/12/05", "2024/12/06", "2024/12/07", "2024/12/08", "2024/12/09", "2024/12/10", "2024/12/11", "2024/12/12", "2024/12/13", "2024/12/14"],&amp;#10;    "prices": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null],&amp;#10;    "sales": [0, 1, 1, 1, 1, 2, 4, 5, 6, 2, 1, 1, 5, 9, 13, 30, 23, 15, 50, 340, 1236, 770, 1435, 1700, 2122, 1236]&amp;#10;}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://images-na.ssl-images-amazon.com/images/I/61342fZwBEL._AC_US600_.jpg</t>
+      <t>B0DP2NBHQY</t>
     </r>
   </si>
   <si>
-    <t>{&amp;#10;    "days": ["2024/11/19", "2024/11/20", "2024/11/21", "2024/11/22", "2024/11/23", "2024/11/24", "2024/11/25", "2024/11/26", "2024/11/27", "2024/11/28", "2024/11/29", "2024/11/30", "2024/12/01", "2024/12/02", "2024/12/03", "2024/12/04", "2024/12/05", "2024/12/06", "2024/12/07", "2024/12/08", "2024/12/09", "2024/12/10", "2024/12/11", "2024/12/12", "2024/12/13", "2024/12/14"],&amp;#10;    "prices": [null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null, null],&amp;#10;    "sales": [0, 1, 1, 1, 1, 2, 4, 5, 6, 2, 1, 1, 5, 9, 13, 30, 23, 15, 50, 340, 1236, 770, 1435, 1700, 2122, 1236]&amp;#10;}</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
+    <t>LED Pet Nail Clippers for Cats,2025 Upgrade Cat Nail Clipper with Light,Cat Claw Trimmer Nail Clippers for Dogs,Professional Cat Nail Trimmer with LED Light to Prevent Injury (Blue/1PCS)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B0DP2NBHQY</t>
-    </r>
-  </si>
-  <si>
-    <t>LED Pet Nail Clippers for Cats,2025 Upgrade Cat Nail Clipper with Light,Cat Claw Trimmer Nail Clippers for Dogs,Professional Cat Nail Trimmer with LED Light to Prevent Injury (Blue/1PCS)</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>https://m.media-amazon.com/images/I/31e-Il2oUcL._AC_US600_.jpg</t>
@@ -200,55 +192,219 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFfefefe"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFEFEFE"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000ee"/>
+      <color rgb="FF0000EE"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0c006b"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0C006B"/>
       <name val="Menlo"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,11 +413,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe98a00"/>
+        <fgColor rgb="FFE98A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -271,16 +614,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -288,60 +646,322 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -352,10 +972,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -393,71 +1013,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,7 +1105,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -508,11 +1128,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -521,13 +1141,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -537,7 +1157,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -546,7 +1166,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -555,7 +1175,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -563,10 +1183,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -626,210 +1246,194 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="12" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.0096153846154" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.0096153846154" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.0096153846154" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.2884615384615" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.4326923076923" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="21.0096153846154" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="688.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="409.5" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>45616</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="675.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="409.5" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>45615</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="714.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="409.5" customHeight="1" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>45621</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="21.75" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>45641</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="21.75" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>45621</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+    <row r="7" ht="21" customHeight="1" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+    <row r="8" ht="21" customHeight="1" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+    <row r="9" ht="21" customHeight="1" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+    <row r="10" ht="21" customHeight="1" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>